--- a/{{cookiecutter.project_slug}}/individual_cleaning_rules.xlsx
+++ b/{{cookiecutter.project_slug}}/individual_cleaning_rules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yayasaidoujallow/Docs_Here/test_proj/project_yomba_v1/{{cookiecutter.project_slug}}/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6699276-AF06-F245-BA89-58124D7DFAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062EEDF7-E30E-7F4B-A6FE-7AAF2E933EE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Individual Rules" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>variable</t>
   </si>
@@ -62,15 +62,6 @@
   </si>
   <si>
     <t>Clamp unrealistic ages to valid range</t>
-  </si>
-  <si>
-    <t>flag_outliers</t>
-  </si>
-  <si>
-    <t>method=iqr;threshold=3.0</t>
-  </si>
-  <si>
-    <t>Flag age outliers for review</t>
   </si>
   <si>
     <t>gender</t>
@@ -554,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="206" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -616,16 +607,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
         <v>41</v>
-      </c>
-      <c r="E3" t="s">
-        <v>44</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -656,19 +647,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -676,19 +667,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" t="s">
-        <v>19</v>
-      </c>
       <c r="F6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -696,19 +687,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" t="s">
-        <v>38</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -716,7 +704,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
@@ -733,13 +721,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -773,13 +764,13 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -790,19 +781,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" t="s">
         <v>31</v>
       </c>
-      <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" t="s">
-        <v>33</v>
-      </c>
       <c r="F12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -810,19 +801,16 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" t="s">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="F13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -830,7 +818,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
@@ -847,7 +835,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
@@ -864,13 +852,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -881,19 +875,13 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
-      </c>
-      <c r="D17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -926,36 +914,19 @@
       <c r="B19" t="s">
         <v>50</v>
       </c>
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
       <c r="E19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C20" t="s">
-        <v>54</v>
-      </c>
-      <c r="D20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
         <v>1</v>
       </c>
     </row>
